--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>2163.8000</v>
+        <v>4565.0900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>2727.0000</v>
+        <v>736.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -518,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>570.0000</v>
+        <v>320.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -530,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>305.0900</v>
+        <v>1914.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -542,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>1446.9300</v>
+        <v>204.5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -554,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>456.4600</v>
+        <v>4155.6900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -566,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>306.6400</v>
+        <v>340.6900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -578,7 +584,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>910.1300</v>
+        <v>523.5600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -590,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>1277.4400</v>
+        <v>970.3500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -602,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>13.4600</v>
+        <v>14.6700</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -614,7 +620,19 @@
         <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>250.0800</v>
+        <v>2988.3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>402.1800</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,76 +31,49 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -463,16 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -500,139 +472,93 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>4565.0900</v>
+        <v>18.7000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>736.0000</v>
+        <v>20292.4600</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>320.0000</v>
+        <v>1656.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>1914.5000</v>
+        <v>10944.0900</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>204.5000</v>
+        <v>5972.1200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>4155.6900</v>
+        <v>2329.6000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>340.6900</v>
+        <v>7483.4200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>523.5600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>970.3500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>14.6700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2988.3200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>402.1800</v>
+        <v>652.3500</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,49 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -436,15 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -472,93 +500,139 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>18.7000</v>
+        <v>4565.0900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>20292.4600</v>
+        <v>736.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>1656.0000</v>
+        <v>320.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>10944.0900</v>
+        <v>1914.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>5972.1200</v>
+        <v>204.5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>2329.6000</v>
+        <v>4155.6900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>7483.4200</v>
+        <v>340.6900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>652.3500</v>
+        <v>523.5600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>970.3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14.6700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2988.3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>402.1800</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,12 +31,15 @@
     <t>Tickets</t>
   </si>
   <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
     <t>T100</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
     <t>Ski School</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>D5201</t>
   </si>
   <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
   </si>
   <si>
     <t>Purgy's</t>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,139 +503,153 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>4565.0900</v>
+        <v>25.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>736.0000</v>
+        <v>4785.7000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>320.0000</v>
+        <v>1475.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>1914.5000</v>
+        <v>320.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>204.5000</v>
+        <v>2695.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>4155.6900</v>
+        <v>225.9000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>340.6900</v>
+        <v>2384.3600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>523.5600</v>
+        <v>633.1700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>970.3500</v>
+        <v>753.3400</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>14.6700</v>
+        <v>878.5300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>2988.3200</v>
+        <v>10.0000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1798.3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>402.1800</v>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>549.9700</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,79 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -466,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -503,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>25.0000</v>
+        <v>18.7000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -517,139 +489,93 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>4785.7000</v>
+        <v>695.0700</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>1475.0000</v>
+        <v>26859.9800</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>320.0000</v>
+        <v>853.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>2695.0000</v>
+        <v>12583.7900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>225.9000</v>
+        <v>3189.2900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>2384.3600</v>
+        <v>5353.7900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>633.1700</v>
+        <v>6805.4300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>753.3400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>878.5300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.0000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1798.3600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>549.9700</v>
+        <v>309.9900</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,85 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -472,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -502,14 +468,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>36.2000</v>
+        <v>-89.8000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -517,157 +481,113 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>6479.1500</v>
+        <v>28.0500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>478.0000</v>
+        <v>24753.3700</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>320.0000</v>
+        <v>750.2800</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>3525.0000</v>
+        <v>3513.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>1823.9100</v>
+        <v>12652.1400</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>2149.4100</v>
+        <v>4403.8500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>563.4700</v>
+        <v>6652.7100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>701.2600</v>
+        <v>6675.4100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>1004.1100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20.0000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3363.7600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>701.3700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>90.0000</v>
+        <v>1077.1400</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,52 +31,85 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -439,14 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,12 +502,14 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-89.8000</v>
+        <v>24160.8500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -481,113 +517,157 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2">
-        <v>28.0500</v>
+        <v>1392.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>24753.3700</v>
+        <v>4294.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>750.2800</v>
+        <v>8575.7000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>3513.0000</v>
+        <v>1762.1600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>12652.1400</v>
+        <v>5076.4800</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>4403.8500</v>
+        <v>972.7600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>6652.7100</v>
+        <v>1613.9800</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>6675.4100</v>
+        <v>3683.3200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>1077.1400</v>
+        <v>961.2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>821.7400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40.0000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9024.6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1633.3600</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Revenue.xlsx
+++ b/reports/For The Day (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,85 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -472,15 +439,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>24160.8500</v>
+        <v>79179.7200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -523,151 +489,105 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1392.0000</v>
+        <v>3229.9400</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>4294.0000</v>
+        <v>-1033.5000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>8575.7000</v>
+        <v>28.0500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1762.1600</v>
+        <v>6010.5900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>5076.4800</v>
+        <v>23868.3300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>972.7600</v>
+        <v>11095.4500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>1613.9800</v>
+        <v>9842.7000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>3683.3200</v>
+        <v>13077.4500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>961.2400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>821.7400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>40.0000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9024.6000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1633.3600</v>
+        <v>525.6000</v>
       </c>
     </row>
   </sheetData>
